--- a/electricity_by_area_and_building.xlsx
+++ b/electricity_by_area_and_building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notes\PycharmProjects\optigram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshiying/Documents/Documents – Miffynme's macbook/optigram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A02D0E-D1EA-4F79-885C-5D2BF8BFE69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A5F2FD-AE6F-834D-8EDF-AEE623177776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="4152" windowWidth="30960" windowHeight="12204" xr2:uid="{8C48A84A-50CE-4ECF-99EC-C96681CDE2C1}"/>
+    <workbookView xWindow="120" yWindow="2160" windowWidth="25600" windowHeight="12200" xr2:uid="{8C48A84A-50CE-4ECF-99EC-C96681CDE2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
@@ -530,20 +530,20 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F3" sqref="F3:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -589,7 +589,7 @@
         <v>1243.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -605,8 +605,14 @@
       <c r="E3">
         <v>483.00779469825153</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G3">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -622,8 +628,14 @@
       <c r="E4">
         <v>450.34776818958341</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G4">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -639,8 +651,14 @@
       <c r="E5">
         <v>462.90001684636121</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G5">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -656,8 +674,14 @@
       <c r="E6">
         <v>499.24592865972733</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G6">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -673,8 +697,14 @@
       <c r="E7">
         <v>468.29664161709587</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G7">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -690,8 +720,14 @@
       <c r="E8">
         <v>431.34394301653714</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G8">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -707,8 +743,14 @@
       <c r="E9">
         <v>493.68811764705885</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G9">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -724,8 +766,14 @@
       <c r="E10">
         <v>465.56815131177547</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G10">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -741,8 +789,14 @@
       <c r="E11">
         <v>449.48169656129227</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G11">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -758,8 +812,14 @@
       <c r="E12">
         <v>505.52094522019337</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G12">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -775,8 +835,14 @@
       <c r="E13">
         <v>446.50054525627047</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G13">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -792,8 +858,14 @@
       <c r="E14">
         <v>458.70952635154811</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G14">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -809,8 +881,14 @@
       <c r="E15">
         <v>484.07423291786432</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G15">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -826,8 +904,14 @@
       <c r="E16">
         <v>528.03842941938319</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G16">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -843,8 +927,14 @@
       <c r="E17">
         <v>513.86011326300286</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G17">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -860,8 +950,14 @@
       <c r="E18">
         <v>452.31683542085182</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G18">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -877,8 +973,14 @@
       <c r="E19">
         <v>493.46504251015568</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G19">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -894,8 +996,14 @@
       <c r="E20">
         <v>428.69394542286682</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G20">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -911,8 +1019,14 @@
       <c r="E21">
         <v>442.75370191914038</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G21">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -928,8 +1042,14 @@
       <c r="E22">
         <v>511.87627478458739</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G22">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -945,8 +1065,14 @@
       <c r="E23">
         <v>465.15599389137196</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G23">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -962,8 +1088,14 @@
       <c r="E24">
         <v>492.90313383792972</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G24">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -979,8 +1111,14 @@
       <c r="E25">
         <v>488.89866099708024</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G25">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -996,8 +1134,14 @@
       <c r="E26">
         <v>481.88925979030381</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G26">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1013,8 +1157,14 @@
       <c r="E27">
         <v>434.09791437710663</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G27">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1030,8 +1180,14 @@
       <c r="E28">
         <v>466.21340686550366</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G28">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1047,8 +1203,14 @@
       <c r="E29">
         <v>448.8384544313094</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G29">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1064,8 +1226,14 @@
       <c r="E30">
         <v>454.17808103782329</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G30">
+        <v>1243.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1080,6 +1248,12 @@
       </c>
       <c r="E31">
         <v>478.07243539196287</v>
+      </c>
+      <c r="F31">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="G31">
+        <v>1243.2</v>
       </c>
     </row>
   </sheetData>
